--- a/player_d_dash/defense-dash-lt10_SeasonType_Playoffs_Season_2021-22.xlsx
+++ b/player_d_dash/defense-dash-lt10_SeasonType_Playoffs_Season_2021-22.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -894,12 +894,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-8.1</t>
         </is>
       </c>
     </row>
@@ -909,42 +909,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Al Horford</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>43.0%</t>
+          <t>66.0%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -954,17 +954,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-17.3</t>
+          <t>-21.3</t>
         </is>
       </c>
     </row>
@@ -974,62 +974,62 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>66.0%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-21.3</t>
+          <t>-15.8</t>
         </is>
       </c>
     </row>
@@ -1429,12 +1429,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1444,27 +1444,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>46.7%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1474,17 +1474,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-7.7</t>
         </is>
       </c>
     </row>
@@ -1494,12 +1494,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1509,47 +1509,47 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>46.8%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-7.5</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -1579,12 +1579,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1594,17 +1594,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-12.9</t>
+          <t>-13.6</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>15.8</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-12.7</t>
+          <t>-12.8</t>
         </is>
       </c>
     </row>
@@ -2469,42 +2469,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>42.6%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2514,17 +2514,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -2599,22 +2599,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>42.6%</t>
+          <t>41.1%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2644,17 +2644,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>-14.0</t>
         </is>
       </c>
     </row>
@@ -2664,17 +2664,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Precious Achiuwa</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2684,42 +2684,42 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>41.1%</t>
+          <t>47.9%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>58.9</t>
+          <t>60.1</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-1.3</t>
         </is>
       </c>
     </row>
@@ -2729,22 +2729,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2754,17 +2754,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>47.9%</t>
+          <t>48.6%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>60.1</t>
+          <t>60.2</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-7.3</t>
         </is>
       </c>
     </row>
@@ -2794,42 +2794,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>48.6%</t>
+          <t>42.3%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2839,17 +2839,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>60.1</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-7.2</t>
+          <t>-6.1</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3069,47 +3069,47 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>40.3%</t>
+          <t>47.1%</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>60.9</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-8.6</t>
         </is>
       </c>
     </row>
@@ -3119,42 +3119,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Dillon Brooks</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>39.4%</t>
+          <t>40.3%</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3164,17 +3164,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -3184,62 +3184,62 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Larry Nance Jr.</t>
+          <t>Dillon Brooks</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>51.6%</t>
+          <t>39.4%</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-4.2</t>
+          <t>-5.6</t>
         </is>
       </c>
     </row>
@@ -3249,22 +3249,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Larry Nance Jr.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>61.5%</t>
+          <t>51.6%</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3294,17 +3294,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>71.9</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>-4.2</t>
         </is>
       </c>
     </row>
@@ -3314,42 +3314,42 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>46.5%</t>
+          <t>61.5%</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3359,17 +3359,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>71.9</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>-10.6</t>
+          <t>14.8</t>
         </is>
       </c>
     </row>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
@@ -3574,42 +3574,42 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>63.3</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>61.9</t>
+          <t>65.4</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>-11.9</t>
+          <t>-2.1</t>
         </is>
       </c>
     </row>
@@ -3704,42 +3704,42 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3749,17 +3749,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-11.9</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Kevon Looney</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3909,32 +3909,32 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>48.9%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>62.6</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>-4.9</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Derrick White</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3984,22 +3984,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>39.1%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4009,17 +4009,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>61.3</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>-10.7</t>
+          <t>-10.9</t>
         </is>
       </c>
     </row>
@@ -4029,17 +4029,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Derrick White</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4049,22 +4049,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>50.5%</t>
+          <t>37.7%</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4074,17 +4074,17 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>-13.5</t>
+          <t>-5.7</t>
         </is>
       </c>
     </row>
@@ -4094,17 +4094,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Seth Curry</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4114,22 +4114,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>38.8%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>-12.3</t>
+          <t>-10.0</t>
         </is>
       </c>
     </row>
@@ -4159,17 +4159,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Seth Curry</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4179,22 +4179,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>37.7%</t>
+          <t>38.8%</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4204,17 +4204,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>59.7</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>-5.7</t>
+          <t>-12.3</t>
         </is>
       </c>
     </row>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4234,32 +4234,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>44.3%</t>
+          <t>42.7%</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4269,17 +4269,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>-6.7</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4299,32 +4299,32 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>43.7%</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>61.2</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -4419,62 +4419,62 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>39.0%</t>
+          <t>48.7%</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>62.4</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -4484,42 +4484,42 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>44.2%</t>
+          <t>51.9%</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4529,17 +4529,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>61.9</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>25.1</t>
+          <t>5.3</t>
         </is>
       </c>
     </row>
@@ -4549,42 +4549,42 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>39.0%</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4594,17 +4594,17 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>60.9</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>57.6</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -4614,42 +4614,42 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>DeMar DeRozan</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>51.9%</t>
+          <t>44.2%</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4659,17 +4659,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>25.1</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4689,27 +4689,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>38.4%</t>
+          <t>47.4%</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4724,17 +4724,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -4744,17 +4744,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Kevon Looney</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4764,22 +4764,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>42.6%</t>
+          <t>38.4%</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Grayson Allen</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4839,12 +4839,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>33.1%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>58.9</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Grayson Allen</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.1%</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4919,17 +4919,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>-8.0</t>
         </is>
       </c>
     </row>
@@ -4939,17 +4939,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanovic</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4959,42 +4959,42 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>41.9%</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>-14.3</t>
         </is>
       </c>
     </row>
@@ -5004,42 +5004,42 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Bojan Bogdanovic</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>41.9%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5049,17 +5049,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>-0.5</t>
         </is>
       </c>
     </row>
@@ -5069,42 +5069,42 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
+          <t>Bogdan Bogdanovic</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>42.2%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>66.4</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>12.4</t>
         </is>
       </c>
     </row>
@@ -5134,17 +5134,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5154,17 +5154,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>45.8%</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-3.2</t>
         </is>
       </c>
     </row>
@@ -5199,42 +5199,42 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Bojan Bogdanovic</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>36.5%</t>
+          <t>41.9%</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5244,17 +5244,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
@@ -5264,17 +5264,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5284,17 +5284,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>45.8%</t>
+          <t>36.0%</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5314,12 +5314,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -5329,62 +5329,62 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Brandon Ingram</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>41.0%</t>
+          <t>42.2%</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>70.4</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>66.4</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>-13.3</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -5544,17 +5544,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>44.1%</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5564,22 +5564,22 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>-4.4</t>
+          <t>-4.1</t>
         </is>
       </c>
     </row>
@@ -5704,12 +5704,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>57.5</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>-4.5</t>
         </is>
       </c>
     </row>
@@ -5719,62 +5719,62 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Otto Porter Jr.</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>63.6%</t>
+          <t>36.2%</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>61.9</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>57.6</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
           <t>4.3</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>-4.0</t>
         </is>
       </c>
     </row>
@@ -5784,22 +5784,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Onyeka Okongwu</t>
+          <t>Monte Morris</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5814,12 +5814,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>46.7%</t>
+          <t>32.8%</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5829,17 +5829,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>-8.3</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Onyeka Okongwu</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5859,12 +5859,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5879,12 +5879,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>46.7%</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5894,17 +5894,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>61.9</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>57.6</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>-8.3</t>
         </is>
       </c>
     </row>
@@ -5914,42 +5914,42 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Monte Morris</t>
+          <t>Otto Porter Jr.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>32.8%</t>
+          <t>64.0%</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5959,17 +5959,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>61.8</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>-4.9</t>
         </is>
       </c>
     </row>
@@ -5979,22 +5979,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6004,17 +6004,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>43.9%</t>
+          <t>46.3%</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6024,17 +6024,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>14.6</t>
         </is>
       </c>
     </row>
@@ -6044,22 +6044,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Gary Trent Jr.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6069,17 +6069,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>46.3%</t>
+          <t>43.9%</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6089,17 +6089,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -6239,17 +6239,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
+          <t>P.J. Tucker</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6259,22 +6259,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>44.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>-15.8</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -6304,17 +6304,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>P.J. Tucker</t>
+          <t>Bobby Portis</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6324,22 +6324,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>37.3%</t>
+          <t>44.2%</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6349,17 +6349,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>-15.8</t>
         </is>
       </c>
     </row>
@@ -6499,42 +6499,42 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Nemanja Bjelica</t>
+          <t>Will Barton</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>54.0%</t>
+          <t>40.9%</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6544,17 +6544,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>-6.8</t>
+          <t>12.9</t>
         </is>
       </c>
     </row>
@@ -6564,42 +6564,42 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Will Barton</t>
+          <t>Nemanja Bjelica</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>40.9%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6609,17 +6609,17 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>-5.6</t>
         </is>
       </c>
     </row>
@@ -6629,42 +6629,42 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>56.0%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6674,17 +6674,17 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>61.8</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>-11.8</t>
         </is>
       </c>
     </row>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Chris Boucher</t>
+          <t>Thaddeus Young</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6704,12 +6704,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -6719,17 +6719,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>45.7%</t>
+          <t>48.8%</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6739,17 +6739,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>-27.3</t>
+          <t>22.3</t>
         </is>
       </c>
     </row>
@@ -6759,17 +6759,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6779,22 +6779,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>47.9%</t>
+          <t>56.0%</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6804,17 +6804,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>68.6</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
@@ -6874,12 +6874,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -6889,42 +6889,42 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>24.1%</t>
+          <t>47.7%</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6934,17 +6934,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>61.8</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>-11.8</t>
+          <t>10.2</t>
         </is>
       </c>
     </row>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Ziaire Williams</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6964,27 +6964,27 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>47.7%</t>
+          <t>47.9%</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6999,17 +6999,17 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>68.6</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>9.4</t>
         </is>
       </c>
     </row>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Thaddeus Young</t>
+          <t>Chris Boucher</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -7029,12 +7029,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7044,17 +7044,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>48.8%</t>
+          <t>45.7%</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7064,17 +7064,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>-27.3</t>
         </is>
       </c>
     </row>
@@ -7264,12 +7264,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>61.7</t>
+          <t>61.8</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
     </row>
@@ -7344,42 +7344,42 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Mike Conley</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>35.7%</t>
+          <t>50.8%</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7389,17 +7389,17 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>-8.6</t>
         </is>
       </c>
     </row>
@@ -7409,42 +7409,42 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>Mike Conley</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>50.8%</t>
+          <t>35.7%</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7454,17 +7454,17 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>-8.6</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -7474,42 +7474,42 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Andre Iguodala</t>
+          <t>Dwight Powell</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>49.1%</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7519,17 +7519,17 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-6.1</t>
         </is>
       </c>
     </row>
@@ -7539,42 +7539,42 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Dwight Powell</t>
+          <t>Andre Drummond</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>49.1%</t>
+          <t>46.4%</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7584,17 +7584,17 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>63.2</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>-6.1</t>
+          <t>-16.8</t>
         </is>
       </c>
     </row>
@@ -7604,62 +7604,62 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Andre Drummond</t>
+          <t>Ayo Dosunmu</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>46.4%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>60.8</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>-16.9</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -7734,42 +7734,42 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ayo Dosunmu</t>
+          <t>Danuel House Jr.</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>42.2%</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7779,17 +7779,17 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>68.8</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>60.8</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>-12.1</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Danuel House Jr.</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7809,12 +7809,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -7829,12 +7829,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>42.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7844,17 +7844,17 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>57.2</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>-12.1</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -7864,17 +7864,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Danny Green</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -7884,42 +7884,42 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>37.3%</t>
+          <t>32.5%</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>64.9</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>57.2</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>7.1</t>
         </is>
       </c>
     </row>
@@ -7929,7 +7929,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Danny Green</t>
+          <t>Paul Millsap</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7939,52 +7939,52 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>32.5%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>64.9</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>59.7</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>40.3</t>
         </is>
       </c>
     </row>
@@ -7994,17 +7994,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Paul Millsap</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -8014,42 +8014,42 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>27.7%</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>6.1</t>
         </is>
       </c>
     </row>
@@ -8059,42 +8059,42 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DeAndre Jordan</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>45.0%</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8104,17 +8104,17 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>69.4</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>64.8</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>9.5</t>
         </is>
       </c>
     </row>
@@ -8124,37 +8124,37 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>Elfrid Payton</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>27.7%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8174,12 +8174,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>12.2</t>
         </is>
       </c>
     </row>
@@ -8189,42 +8189,42 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>DeAndre Jordan</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>45.0%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8234,17 +8234,17 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>69.4</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>18.6</t>
         </is>
       </c>
     </row>
@@ -8319,7 +8319,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Elfrid Payton</t>
+          <t>Bismack Biyombo</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -8329,52 +8329,52 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>46.0%</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>65.2</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>6.4</t>
         </is>
       </c>
     </row>
@@ -8384,62 +8384,62 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Bismack Biyombo</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>46.0%</t>
+          <t>32.3%</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>65.2</t>
+          <t>56.9</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>58.9</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>-1.8</t>
         </is>
       </c>
     </row>
@@ -8449,42 +8449,42 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Gabe Vincent</t>
+          <t>Davis Bertans</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>32.3%</t>
+          <t>55.8%</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8494,17 +8494,17 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>7.5</t>
         </is>
       </c>
     </row>
@@ -8514,42 +8514,42 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Davis Bertans</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>55.8%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8559,17 +8559,17 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>John Konchar</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -8599,17 +8599,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>63.6%</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8644,17 +8644,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>John Konchar</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -8669,37 +8669,37 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>63.6%</t>
+          <t>35.1%</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -8774,7 +8774,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -8784,12 +8784,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -8799,17 +8799,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>35.1%</t>
+          <t>54.2%</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>61.3</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>15.6</t>
         </is>
       </c>
     </row>
@@ -8839,42 +8839,42 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>JaVale McGee</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>41.2%</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8884,17 +8884,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>61.3</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>15.6</t>
+          <t>-6.1</t>
         </is>
       </c>
     </row>
@@ -8904,62 +8904,62 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>JaVale McGee</t>
+          <t>Caleb Martin</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>41.2%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>59.6</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>-6.1</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -9034,17 +9034,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Gary Payton II</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -9054,22 +9054,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>32.9%</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9079,17 +9079,17 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>60.3</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>-16.3</t>
         </is>
       </c>
     </row>
@@ -9099,37 +9099,37 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Caleb Martin</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9149,12 +9149,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>55.2</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -9164,37 +9164,37 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Georges Niang</t>
+          <t>Andre Iguodala</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>43.3%</t>
+          <t>52.6%</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -9204,22 +9204,22 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>62.1</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -9229,42 +9229,42 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>JaMychal Green</t>
+          <t>Georges Niang</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>38.7%</t>
+          <t>43.3%</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>62.1</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Austin Rivers</t>
+          <t>DeMarcus Cousins</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -9369,12 +9369,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -9389,12 +9389,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9404,17 +9404,17 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>60.2</t>
+          <t>61.2</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -9424,7 +9424,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DeMarcus Cousins</t>
+          <t>JaMychal Green</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -9454,7 +9454,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>38.7%</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -9474,12 +9474,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>64.5</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -9489,17 +9489,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Wesley Matthews</t>
+          <t>Austin Rivers</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -9509,42 +9509,42 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>27.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>60.1</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>-10.6</t>
+          <t>14.9</t>
         </is>
       </c>
     </row>
@@ -9554,17 +9554,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Gary Payton II</t>
+          <t>Wesley Matthews</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -9574,42 +9574,42 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>31.7%</t>
+          <t>27.0%</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-19.7</t>
+          <t>-10.6</t>
         </is>
       </c>
     </row>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Naji Marshall</t>
+          <t>Devonte' Graham</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -9629,12 +9629,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -9649,12 +9649,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>43.3%</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9664,17 +9664,17 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>-0.4</t>
         </is>
       </c>
     </row>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Devonte' Graham</t>
+          <t>Naji Marshall</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -9694,12 +9694,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -9714,12 +9714,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>43.3%</t>
+          <t>65.0%</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9729,17 +9729,17 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>60.3</t>
+          <t>60.4</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -9879,17 +9879,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Malachi Flynn</t>
+          <t>Patty Mills</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -9899,22 +9899,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>52.6%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9924,17 +9924,17 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>19.4</t>
         </is>
       </c>
     </row>
@@ -9994,12 +9994,12 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>40.2</t>
         </is>
       </c>
     </row>
@@ -10009,42 +10009,42 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Khem Birch</t>
+          <t>Willy Hernangomez</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>35.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10054,17 +10054,17 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>47.9</t>
         </is>
       </c>
     </row>
@@ -10074,42 +10074,42 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Damion Lee</t>
+          <t>Hassan Whiteside</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10119,17 +10119,17 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>72.7</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>60.2</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>-17.2</t>
         </is>
       </c>
     </row>
@@ -10139,42 +10139,42 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Hassan Whiteside</t>
+          <t>Jarrett Culver</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10184,17 +10184,17 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>58.9</t>
+          <t>63.1</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>-17.2</t>
+          <t>36.9</t>
         </is>
       </c>
     </row>
@@ -10204,42 +10204,42 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Patty Mills</t>
+          <t>Khem Birch</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>35.3%</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10249,17 +10249,17 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>19.3</t>
+          <t>8.9</t>
         </is>
       </c>
     </row>
@@ -10269,62 +10269,62 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Willy Hernangomez</t>
+          <t>Damion Lee</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>72.7</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>60.2</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>12.5</t>
         </is>
       </c>
     </row>
@@ -10334,62 +10334,62 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Jarrett Culver</t>
+          <t>Malachi Flynn</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>52.6%</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>-1.6</t>
         </is>
       </c>
     </row>
@@ -10399,17 +10399,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -10419,7 +10419,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -10429,12 +10429,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>40.6%</t>
+          <t>36.9%</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10444,17 +10444,17 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>8.8</t>
         </is>
       </c>
     </row>
@@ -10464,17 +10464,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -10484,42 +10484,42 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>36.9%</t>
+          <t>47.8%</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>90.9</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>23.9</t>
         </is>
       </c>
     </row>
@@ -10529,17 +10529,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -10549,22 +10549,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>47.8%</t>
+          <t>31.0%</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10574,17 +10574,17 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>90.9</t>
+          <t>88.9</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>62.2</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>23.9</t>
+          <t>26.7</t>
         </is>
       </c>
     </row>
@@ -10659,42 +10659,42 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>31.0%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10704,17 +10704,17 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>88.9</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>62.1</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
@@ -10724,7 +10724,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Moses Moody</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -10734,52 +10734,52 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>51.6%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>68.8</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>7.1</t>
         </is>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Cameron Payne</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -10799,7 +10799,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -10809,42 +10809,42 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>45.2%</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>61.9</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -10854,17 +10854,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Cameron Payne</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -10874,22 +10874,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>45.2%</t>
+          <t>35.3%</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>58.9</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-26.4</t>
         </is>
       </c>
     </row>
@@ -10919,42 +10919,42 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Jaxson Hayes</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>35.3%</t>
+          <t>31.3%</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10964,17 +10964,17 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>61.3</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>-26.4</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
@@ -11049,37 +11049,37 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Jaxson Hayes</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>31.3%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -11089,22 +11089,22 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>61.3</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>13.1</t>
         </is>
       </c>
     </row>
@@ -11114,17 +11114,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Moses Moody</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -11134,22 +11134,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>31.7%</t>
+          <t>48.5%</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11159,17 +11159,17 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>-10.5</t>
+          <t>10.8</t>
         </is>
       </c>
     </row>
@@ -11179,62 +11179,62 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>31.4%</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>61.9</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>-10.5</t>
         </is>
       </c>
     </row>
@@ -11634,17 +11634,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Aaron Nesmith</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -11654,22 +11654,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>39.1%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11679,17 +11679,17 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>62.9</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>-25.1</t>
+          <t>-2.9</t>
         </is>
       </c>
     </row>
@@ -11699,62 +11699,62 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Garrett Temple</t>
+          <t>Tony Bradley</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>-13.7</t>
         </is>
       </c>
     </row>
@@ -11764,17 +11764,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Dalano Banton</t>
+          <t>Vlatko Cancar</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -11784,22 +11784,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11809,17 +11809,17 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>31.3</t>
         </is>
       </c>
     </row>
@@ -11829,12 +11829,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>Marquese Chriss</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -11844,22 +11844,22 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -11879,12 +11879,12 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>-13.7</t>
+          <t>-9.1</t>
         </is>
       </c>
     </row>
@@ -11894,17 +11894,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>Garrett Temple</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -11914,22 +11914,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11939,17 +11939,17 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>56.1</t>
         </is>
       </c>
     </row>
@@ -11959,62 +11959,62 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Vlatko Cancar</t>
+          <t>Aaron Nesmith</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>39.1%</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>31.3</t>
+          <t>-25.1</t>
         </is>
       </c>
     </row>
@@ -12024,42 +12024,42 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Timothe Luwawu-Cabarrot</t>
+          <t>Charles Bassey</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12069,17 +12069,17 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>57.6</t>
+          <t>59.7</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-7.6</t>
+          <t>40.3</t>
         </is>
       </c>
     </row>
@@ -12089,22 +12089,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -12139,12 +12139,12 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>51.4</t>
         </is>
       </c>
     </row>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Jaden Springer</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -12174,42 +12174,42 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-6.0</t>
         </is>
       </c>
     </row>
@@ -12219,22 +12219,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Charles Bassey</t>
+          <t>Dalano Banton</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -12249,32 +12249,32 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>7.7</t>
         </is>
       </c>
     </row>
@@ -12284,22 +12284,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Jaden Springer</t>
+          <t>Timothe Luwawu-Cabarrot</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -12309,12 +12309,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -12334,12 +12334,12 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-7.6</t>
         </is>
       </c>
     </row>
@@ -12349,42 +12349,42 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Marquese Chriss</t>
+          <t>Svi Mykhailiuk</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12394,17 +12394,17 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>100</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>-9.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12479,17 +12479,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Jordan Nwora</t>
+          <t>Haywood Highsmith</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -12529,12 +12529,12 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>62.8</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -12544,17 +12544,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Haywood Highsmith</t>
+          <t>Jordan Nwora</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -12574,7 +12574,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -12594,12 +12594,12 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>62.8</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -12674,62 +12674,62 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Yuta Watanabe</t>
+          <t>Juancho Hernangomez</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>18.2%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
           <t>0.7</t>
         </is>
       </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>61.3</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>-30.7</t>
         </is>
       </c>
     </row>
@@ -12739,42 +12739,42 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Juancho Hernangomez</t>
+          <t>Yuta Watanabe</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12784,17 +12784,17 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>61.3</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-30.7</t>
+          <t>38.7</t>
         </is>
       </c>
     </row>
@@ -12804,22 +12804,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Nik Stauskas</t>
+          <t>Thanasis Antetokounmpo</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -12829,17 +12829,17 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12849,17 +12849,17 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>39.3</t>
         </is>
       </c>
     </row>
@@ -12869,22 +12869,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Ish Wainright</t>
+          <t>Nik Stauskas</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12914,17 +12914,17 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>-26.1</t>
+          <t>9.9</t>
         </is>
       </c>
     </row>
@@ -12934,22 +12934,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Thanasis Antetokounmpo</t>
+          <t>Luke Kornet</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -12959,7 +12959,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -12969,27 +12969,27 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
           <t>0.6</t>
         </is>
       </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>39.3</t>
+          <t>5.7</t>
         </is>
       </c>
     </row>
@@ -12999,22 +12999,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Luke Kornet</t>
+          <t>Aaron Holiday</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -13024,12 +13024,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -13049,12 +13049,12 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>13.1</t>
         </is>
       </c>
     </row>
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Aaron Holiday</t>
+          <t>Ish Wainright</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -13074,12 +13074,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -13089,17 +13089,17 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -13109,17 +13109,17 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>-26.1</t>
         </is>
       </c>
     </row>
@@ -13194,17 +13194,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Malik Fitts</t>
+          <t>Kevin Knox II</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -13214,12 +13214,12 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -13229,7 +13229,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -13239,17 +13239,17 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>81.9</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-31.9</t>
+          <t>40.6</t>
         </is>
       </c>
     </row>
@@ -13259,62 +13259,62 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Gorgui Dieng</t>
+          <t>Malik Fitts</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>81.9</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>-31.9</t>
         </is>
       </c>
     </row>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Kevin Knox II</t>
+          <t>Gorgui Dieng</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -13334,12 +13334,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -13374,12 +13374,12 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>40.1</t>
         </is>
       </c>
     </row>
@@ -13389,17 +13389,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Isaiah Joe</t>
+          <t>Armoni Brooks</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -13419,7 +13419,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -13439,12 +13439,12 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>80.7</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>19.4</t>
         </is>
       </c>
     </row>
@@ -13584,17 +13584,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Armoni Brooks</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -13614,7 +13614,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -13634,12 +13634,12 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>80.7</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>47.6</t>
         </is>
       </c>
     </row>
@@ -13649,32 +13649,32 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Rayjon Tucker</t>
+          <t>Juwan Morgan</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -13684,27 +13684,27 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>60.8</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>-8.8</t>
         </is>
       </c>
     </row>
@@ -13714,27 +13714,27 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Juwan Morgan</t>
+          <t>Rayjon Tucker</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -13764,12 +13764,12 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>60.8</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>39.2</t>
         </is>
       </c>
     </row>
